--- a/database/industries/methanol/shekolor/product/quarterly.xlsx
+++ b/database/industries/methanol/shekolor/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\shekolor\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\shekolor\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633D1561-BC3F-4463-8754-A9C2E5EFB0BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A68E3B-42C3-42D9-88E4-D91396B0DB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="53">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>فصل سوم منتهی به 1399/02</t>
   </si>
   <si>
     <t>فصل اول منتهی به 1399/08</t>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل چهارم منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1401/11</t>
   </si>
   <si>
     <t>آب ژاول</t>
@@ -632,12 +632,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -652,7 +652,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -669,7 +669,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -686,7 +686,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -701,7 +701,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -718,7 +718,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -735,7 +735,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -750,7 +750,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -787,7 +787,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -802,7 +802,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -841,7 +841,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
@@ -849,8 +849,8 @@
         <v>16</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="11">
-        <v>856</v>
+      <c r="E11" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>17</v>
@@ -880,7 +880,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
@@ -919,7 +919,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -927,8 +927,8 @@
         <v>16</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="11">
-        <v>2418</v>
+      <c r="E13" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>17</v>
@@ -958,7 +958,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>21</v>
       </c>
@@ -966,8 +966,8 @@
         <v>16</v>
       </c>
       <c r="D14" s="9"/>
-      <c r="E14" s="9">
-        <v>924</v>
+      <c r="E14" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>17</v>
@@ -997,7 +997,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>22</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>23</v>
       </c>
@@ -1044,8 +1044,8 @@
         <v>16</v>
       </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="9">
-        <v>5965</v>
+      <c r="E16" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>17</v>
@@ -1075,7 +1075,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>24</v>
       </c>
@@ -1114,7 +1114,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>25</v>
       </c>
@@ -1122,8 +1122,8 @@
         <v>16</v>
       </c>
       <c r="D18" s="9"/>
-      <c r="E18" s="9">
-        <v>1503</v>
+      <c r="E18" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>17</v>
@@ -1153,7 +1153,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>26</v>
       </c>
@@ -1161,8 +1161,8 @@
         <v>16</v>
       </c>
       <c r="D19" s="11"/>
-      <c r="E19" s="11">
-        <v>1932</v>
+      <c r="E19" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>17</v>
@@ -1192,7 +1192,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>27</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>28</v>
       </c>
@@ -1246,8 +1246,8 @@
       <c r="G21" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="11" t="s">
-        <v>17</v>
+      <c r="H21" s="11">
+        <v>0</v>
       </c>
       <c r="I21" s="11">
         <v>0</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>29</v>
       </c>
@@ -1276,8 +1276,8 @@
         <v>16</v>
       </c>
       <c r="D22" s="9"/>
-      <c r="E22" s="9">
-        <v>339</v>
+      <c r="E22" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>17</v>
@@ -1307,7 +1307,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>30</v>
       </c>
@@ -1315,8 +1315,8 @@
         <v>16</v>
       </c>
       <c r="D23" s="11"/>
-      <c r="E23" s="11">
-        <v>2</v>
+      <c r="E23" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>17</v>
@@ -1324,15 +1324,15 @@
       <c r="G23" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="11" t="s">
-        <v>17</v>
+      <c r="H23" s="11">
+        <v>3</v>
       </c>
       <c r="I23" s="11">
-        <v>3</v>
-      </c>
-      <c r="J23" s="11">
         <v>4</v>
       </c>
+      <c r="J23" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="K23" s="11" t="s">
         <v>17</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="8" t="s">
         <v>31</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>31</v>
       </c>
@@ -1396,12 +1396,12 @@
       <c r="E25" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="11">
+      <c r="F25" s="11">
         <v>60264</v>
       </c>
+      <c r="G25" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="H25" s="11" t="s">
         <v>17</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>33</v>
       </c>
@@ -1432,38 +1432,38 @@
         <v>16</v>
       </c>
       <c r="D26" s="9"/>
-      <c r="E26" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="9">
+      <c r="E26" s="9">
         <v>23562</v>
       </c>
+      <c r="F26" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="G26" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H26" s="9" t="s">
-        <v>17</v>
+      <c r="H26" s="9">
+        <v>12635</v>
       </c>
       <c r="I26" s="9">
-        <v>12635</v>
+        <v>48350</v>
       </c>
       <c r="J26" s="9">
-        <v>48350</v>
+        <v>20276</v>
       </c>
       <c r="K26" s="9">
-        <v>20276</v>
+        <v>22582</v>
       </c>
       <c r="L26" s="9">
-        <v>22582</v>
+        <v>21593</v>
       </c>
       <c r="M26" s="9">
-        <v>21593</v>
+        <v>20612</v>
       </c>
       <c r="N26" s="9">
-        <v>20612</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+        <v>19292</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>34</v>
       </c>
@@ -1480,29 +1480,29 @@
       <c r="G27" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="11" t="s">
-        <v>17</v>
+      <c r="H27" s="11">
+        <v>16601</v>
       </c>
       <c r="I27" s="11">
-        <v>16601</v>
+        <v>21920</v>
       </c>
       <c r="J27" s="11">
-        <v>21920</v>
+        <v>6549</v>
       </c>
       <c r="K27" s="11">
-        <v>6549</v>
+        <v>8858</v>
       </c>
       <c r="L27" s="11">
-        <v>8858</v>
+        <v>7634</v>
       </c>
       <c r="M27" s="11">
-        <v>7634</v>
+        <v>8102</v>
       </c>
       <c r="N27" s="11">
-        <v>8102</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7299</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>35</v>
       </c>
@@ -1525,23 +1525,23 @@
       <c r="I28" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J28" s="9" t="s">
-        <v>17</v>
+      <c r="J28" s="9">
+        <v>797</v>
       </c>
       <c r="K28" s="9">
-        <v>797</v>
+        <v>1045</v>
       </c>
       <c r="L28" s="9">
-        <v>1045</v>
+        <v>971</v>
       </c>
       <c r="M28" s="9">
-        <v>971</v>
+        <v>1068</v>
       </c>
       <c r="N28" s="9">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>36</v>
       </c>
@@ -1558,15 +1558,15 @@
       <c r="G29" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="11" t="s">
-        <v>17</v>
+      <c r="H29" s="11">
+        <v>1260</v>
       </c>
       <c r="I29" s="11">
-        <v>1260</v>
-      </c>
-      <c r="J29" s="11">
         <v>1689</v>
       </c>
+      <c r="J29" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="K29" s="11" t="s">
         <v>17</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>37</v>
       </c>
@@ -1597,15 +1597,15 @@
       <c r="G30" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="9" t="s">
-        <v>17</v>
+      <c r="H30" s="9">
+        <v>397</v>
       </c>
       <c r="I30" s="9">
-        <v>397</v>
-      </c>
-      <c r="J30" s="9">
         <v>505</v>
       </c>
+      <c r="J30" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="K30" s="9" t="s">
         <v>17</v>
       </c>
@@ -1619,44 +1619,44 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="E31" s="13">
-        <v>13939</v>
+        <v>23562</v>
       </c>
       <c r="F31" s="13">
-        <v>23562</v>
+        <v>60264</v>
       </c>
       <c r="G31" s="13">
-        <v>60264</v>
+        <v>0</v>
       </c>
       <c r="H31" s="13">
-        <v>0</v>
+        <v>30896</v>
       </c>
       <c r="I31" s="13">
-        <v>30896</v>
+        <v>72468</v>
       </c>
       <c r="J31" s="13">
-        <v>72468</v>
+        <v>27622</v>
       </c>
       <c r="K31" s="13">
-        <v>27622</v>
+        <v>32485</v>
       </c>
       <c r="L31" s="13">
-        <v>32485</v>
+        <v>30198</v>
       </c>
       <c r="M31" s="13">
-        <v>30198</v>
+        <v>29782</v>
       </c>
       <c r="N31" s="13">
-        <v>29782</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+        <v>27443</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1671,7 +1671,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1686,7 +1686,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1701,7 +1701,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
         <v>39</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1753,7 +1753,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>40</v>
       </c>
@@ -1764,8 +1764,8 @@
       <c r="E37" s="9">
         <v>0</v>
       </c>
-      <c r="F37" s="9">
-        <v>0</v>
+      <c r="F37" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="G37" s="9" t="s">
         <v>17</v>
@@ -1792,7 +1792,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>15</v>
       </c>
@@ -1800,8 +1800,8 @@
         <v>16</v>
       </c>
       <c r="D38" s="11"/>
-      <c r="E38" s="11">
-        <v>6568</v>
+      <c r="E38" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F38" s="11" t="s">
         <v>17</v>
@@ -1831,7 +1831,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>18</v>
       </c>
@@ -1839,8 +1839,8 @@
         <v>16</v>
       </c>
       <c r="D39" s="9"/>
-      <c r="E39" s="9">
-        <v>843</v>
+      <c r="E39" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="F39" s="9" t="s">
         <v>17</v>
@@ -1870,7 +1870,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>19</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>20</v>
       </c>
@@ -1917,8 +1917,8 @@
         <v>16</v>
       </c>
       <c r="D41" s="9"/>
-      <c r="E41" s="9">
-        <v>2058</v>
+      <c r="E41" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="F41" s="9" t="s">
         <v>17</v>
@@ -1948,7 +1948,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>21</v>
       </c>
@@ -1956,8 +1956,8 @@
         <v>16</v>
       </c>
       <c r="D42" s="11"/>
-      <c r="E42" s="11">
-        <v>572</v>
+      <c r="E42" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>17</v>
@@ -1987,7 +1987,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>22</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>23</v>
       </c>
@@ -2034,8 +2034,8 @@
         <v>16</v>
       </c>
       <c r="D44" s="11"/>
-      <c r="E44" s="11">
-        <v>5598</v>
+      <c r="E44" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F44" s="11" t="s">
         <v>17</v>
@@ -2065,7 +2065,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>24</v>
       </c>
@@ -2073,8 +2073,8 @@
         <v>16</v>
       </c>
       <c r="D45" s="9"/>
-      <c r="E45" s="9">
-        <v>7225</v>
+      <c r="E45" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="F45" s="9" t="s">
         <v>17</v>
@@ -2104,7 +2104,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>25</v>
       </c>
@@ -2112,8 +2112,8 @@
         <v>16</v>
       </c>
       <c r="D46" s="11"/>
-      <c r="E46" s="11">
-        <v>532</v>
+      <c r="E46" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>17</v>
@@ -2143,7 +2143,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>26</v>
       </c>
@@ -2151,8 +2151,8 @@
         <v>16</v>
       </c>
       <c r="D47" s="9"/>
-      <c r="E47" s="9">
-        <v>1840</v>
+      <c r="E47" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="F47" s="9" t="s">
         <v>17</v>
@@ -2182,7 +2182,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>27</v>
       </c>
@@ -2190,8 +2190,8 @@
         <v>16</v>
       </c>
       <c r="D48" s="11"/>
-      <c r="E48" s="11">
-        <v>0</v>
+      <c r="E48" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F48" s="11" t="s">
         <v>17</v>
@@ -2221,7 +2221,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>28</v>
       </c>
@@ -2233,11 +2233,11 @@
       <c r="F49" s="9">
         <v>0</v>
       </c>
-      <c r="G49" s="9">
+      <c r="G49" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" s="9">
         <v>0</v>
-      </c>
-      <c r="H49" s="9" t="s">
-        <v>17</v>
       </c>
       <c r="I49" s="9">
         <v>0</v>
@@ -2258,7 +2258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>29</v>
       </c>
@@ -2266,8 +2266,8 @@
         <v>16</v>
       </c>
       <c r="D50" s="11"/>
-      <c r="E50" s="11">
-        <v>307</v>
+      <c r="E50" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F50" s="11" t="s">
         <v>17</v>
@@ -2297,7 +2297,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>30</v>
       </c>
@@ -2309,19 +2309,19 @@
         <v>0</v>
       </c>
       <c r="F51" s="9">
-        <v>0</v>
-      </c>
-      <c r="G51" s="9">
         <v>-13</v>
       </c>
-      <c r="H51" s="9" t="s">
-        <v>17</v>
+      <c r="G51" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" s="9">
+        <v>3</v>
       </c>
       <c r="I51" s="9">
         <v>3</v>
       </c>
-      <c r="J51" s="9">
-        <v>3</v>
+      <c r="J51" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="K51" s="9" t="s">
         <v>17</v>
@@ -2336,7 +2336,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>31</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>42</v>
       </c>
@@ -2383,8 +2383,8 @@
         <v>16</v>
       </c>
       <c r="D53" s="9"/>
-      <c r="E53" s="9">
-        <v>0</v>
+      <c r="E53" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="F53" s="9" t="s">
         <v>17</v>
@@ -2414,7 +2414,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>43</v>
       </c>
@@ -2422,8 +2422,8 @@
         <v>41</v>
       </c>
       <c r="D54" s="11"/>
-      <c r="E54" s="11">
-        <v>0</v>
+      <c r="E54" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F54" s="11" t="s">
         <v>17</v>
@@ -2453,7 +2453,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>33</v>
       </c>
@@ -2461,38 +2461,38 @@
         <v>16</v>
       </c>
       <c r="D55" s="9"/>
-      <c r="E55" s="9" t="s">
-        <v>17</v>
+      <c r="E55" s="9">
+        <v>14797</v>
       </c>
       <c r="F55" s="9">
-        <v>14797</v>
-      </c>
-      <c r="G55" s="9">
         <v>39668</v>
       </c>
-      <c r="H55" s="9" t="s">
-        <v>17</v>
+      <c r="G55" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" s="9">
+        <v>21439</v>
       </c>
       <c r="I55" s="9">
-        <v>21439</v>
+        <v>48676</v>
       </c>
       <c r="J55" s="9">
-        <v>48676</v>
+        <v>20030</v>
       </c>
       <c r="K55" s="9">
-        <v>20030</v>
+        <v>22437</v>
       </c>
       <c r="L55" s="9">
-        <v>22437</v>
+        <v>21763</v>
       </c>
       <c r="M55" s="9">
-        <v>21763</v>
+        <v>20546</v>
       </c>
       <c r="N55" s="9">
-        <v>20546</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+        <v>19017</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>34</v>
       </c>
@@ -2500,38 +2500,38 @@
         <v>16</v>
       </c>
       <c r="D56" s="11"/>
-      <c r="E56" s="11" t="s">
-        <v>17</v>
+      <c r="E56" s="11">
+        <v>6823</v>
       </c>
       <c r="F56" s="11">
-        <v>6823</v>
-      </c>
-      <c r="G56" s="11">
         <v>19813</v>
       </c>
-      <c r="H56" s="11" t="s">
-        <v>17</v>
+      <c r="G56" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" s="11">
+        <v>698</v>
       </c>
       <c r="I56" s="11">
-        <v>698</v>
+        <v>21702</v>
       </c>
       <c r="J56" s="11">
-        <v>21702</v>
+        <v>7450</v>
       </c>
       <c r="K56" s="11">
-        <v>7450</v>
+        <v>7066</v>
       </c>
       <c r="L56" s="11">
-        <v>7066</v>
+        <v>6868</v>
       </c>
       <c r="M56" s="11">
-        <v>6868</v>
+        <v>8906</v>
       </c>
       <c r="N56" s="11">
-        <v>8906</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7370</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>35</v>
       </c>
@@ -2554,23 +2554,23 @@
       <c r="I57" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J57" s="9" t="s">
-        <v>17</v>
+      <c r="J57" s="9">
+        <v>680</v>
       </c>
       <c r="K57" s="9">
-        <v>680</v>
+        <v>974</v>
       </c>
       <c r="L57" s="9">
-        <v>974</v>
+        <v>1015</v>
       </c>
       <c r="M57" s="9">
-        <v>1015</v>
+        <v>702</v>
       </c>
       <c r="N57" s="9">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>36</v>
       </c>
@@ -2578,24 +2578,24 @@
         <v>16</v>
       </c>
       <c r="D58" s="11"/>
-      <c r="E58" s="11" t="s">
-        <v>17</v>
+      <c r="E58" s="11">
+        <v>657</v>
       </c>
       <c r="F58" s="11">
-        <v>657</v>
-      </c>
-      <c r="G58" s="11">
         <v>1421</v>
       </c>
-      <c r="H58" s="11" t="s">
-        <v>17</v>
+      <c r="G58" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" s="11">
+        <v>505</v>
       </c>
       <c r="I58" s="11">
-        <v>505</v>
-      </c>
-      <c r="J58" s="11">
         <v>1704</v>
       </c>
+      <c r="J58" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="K58" s="11" t="s">
         <v>17</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>37</v>
       </c>
@@ -2617,24 +2617,24 @@
         <v>16</v>
       </c>
       <c r="D59" s="9"/>
-      <c r="E59" s="9" t="s">
-        <v>17</v>
+      <c r="E59" s="9">
+        <v>291</v>
       </c>
       <c r="F59" s="9">
-        <v>291</v>
-      </c>
-      <c r="G59" s="9">
         <v>704</v>
       </c>
-      <c r="H59" s="9" t="s">
-        <v>17</v>
+      <c r="G59" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" s="9">
+        <v>112</v>
       </c>
       <c r="I59" s="9">
-        <v>112</v>
-      </c>
-      <c r="J59" s="9">
         <v>659</v>
       </c>
+      <c r="J59" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="K59" s="9" t="s">
         <v>17</v>
       </c>
@@ -2648,44 +2648,44 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="13"/>
       <c r="E60" s="13">
-        <v>25543</v>
+        <v>22568</v>
       </c>
       <c r="F60" s="13">
-        <v>22568</v>
+        <v>61593</v>
       </c>
       <c r="G60" s="13">
-        <v>61593</v>
+        <v>0</v>
       </c>
       <c r="H60" s="13">
-        <v>0</v>
+        <v>22757</v>
       </c>
       <c r="I60" s="13">
-        <v>22757</v>
+        <v>72744</v>
       </c>
       <c r="J60" s="13">
-        <v>72744</v>
+        <v>28160</v>
       </c>
       <c r="K60" s="13">
-        <v>28160</v>
+        <v>30477</v>
       </c>
       <c r="L60" s="13">
-        <v>30477</v>
+        <v>29646</v>
       </c>
       <c r="M60" s="13">
-        <v>29646</v>
+        <v>30154</v>
       </c>
       <c r="N60" s="13">
-        <v>30154</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+        <v>27150</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2700,7 +2700,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2715,7 +2715,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2730,7 +2730,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B64" s="7" t="s">
         <v>44</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2782,7 +2782,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>40</v>
       </c>
@@ -2791,11 +2791,11 @@
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9">
-        <v>-7</v>
-      </c>
-      <c r="F66" s="9">
         <v>0</v>
       </c>
+      <c r="F66" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="G66" s="9" t="s">
         <v>17</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>15</v>
       </c>
@@ -2829,8 +2829,8 @@
         <v>45</v>
       </c>
       <c r="D67" s="11"/>
-      <c r="E67" s="11">
-        <v>43485</v>
+      <c r="E67" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F67" s="11" t="s">
         <v>17</v>
@@ -2860,7 +2860,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>18</v>
       </c>
@@ -2868,8 +2868,8 @@
         <v>45</v>
       </c>
       <c r="D68" s="9"/>
-      <c r="E68" s="9">
-        <v>124221</v>
+      <c r="E68" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="F68" s="9" t="s">
         <v>17</v>
@@ -2899,7 +2899,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>19</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>20</v>
       </c>
@@ -2946,8 +2946,8 @@
         <v>45</v>
       </c>
       <c r="D70" s="9"/>
-      <c r="E70" s="9">
-        <v>8102</v>
+      <c r="E70" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="F70" s="9" t="s">
         <v>17</v>
@@ -2977,7 +2977,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>21</v>
       </c>
@@ -2985,8 +2985,8 @@
         <v>45</v>
       </c>
       <c r="D71" s="11"/>
-      <c r="E71" s="11">
-        <v>5274</v>
+      <c r="E71" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F71" s="11" t="s">
         <v>17</v>
@@ -3016,7 +3016,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
         <v>22</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>23</v>
       </c>
@@ -3063,8 +3063,8 @@
         <v>45</v>
       </c>
       <c r="D73" s="11"/>
-      <c r="E73" s="11">
-        <v>214411</v>
+      <c r="E73" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F73" s="11" t="s">
         <v>17</v>
@@ -3094,7 +3094,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
         <v>24</v>
       </c>
@@ -3102,8 +3102,8 @@
         <v>45</v>
       </c>
       <c r="D74" s="9"/>
-      <c r="E74" s="9">
-        <v>7351</v>
+      <c r="E74" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="F74" s="9" t="s">
         <v>17</v>
@@ -3133,7 +3133,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>25</v>
       </c>
@@ -3141,8 +3141,8 @@
         <v>45</v>
       </c>
       <c r="D75" s="11"/>
-      <c r="E75" s="11">
-        <v>65123</v>
+      <c r="E75" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F75" s="11" t="s">
         <v>17</v>
@@ -3172,7 +3172,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="s">
         <v>26</v>
       </c>
@@ -3180,8 +3180,8 @@
         <v>45</v>
       </c>
       <c r="D76" s="9"/>
-      <c r="E76" s="9">
-        <v>28301</v>
+      <c r="E76" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="F76" s="9" t="s">
         <v>17</v>
@@ -3211,7 +3211,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>27</v>
       </c>
@@ -3219,8 +3219,8 @@
         <v>45</v>
       </c>
       <c r="D77" s="11"/>
-      <c r="E77" s="11">
-        <v>0</v>
+      <c r="E77" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F77" s="11" t="s">
         <v>17</v>
@@ -3250,7 +3250,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>28</v>
       </c>
@@ -3264,11 +3264,11 @@
       <c r="F78" s="9">
         <v>0</v>
       </c>
-      <c r="G78" s="9">
+      <c r="G78" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H78" s="9">
         <v>0</v>
-      </c>
-      <c r="H78" s="9" t="s">
-        <v>17</v>
       </c>
       <c r="I78" s="9">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>29</v>
       </c>
@@ -3297,8 +3297,8 @@
         <v>45</v>
       </c>
       <c r="D79" s="11"/>
-      <c r="E79" s="11">
-        <v>25525</v>
+      <c r="E79" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F79" s="11" t="s">
         <v>17</v>
@@ -3328,7 +3328,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>30</v>
       </c>
@@ -3337,23 +3337,23 @@
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F80" s="9">
-        <v>0</v>
-      </c>
-      <c r="G80" s="9">
         <v>-2034</v>
       </c>
-      <c r="H80" s="9" t="s">
-        <v>17</v>
+      <c r="G80" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H80" s="9">
+        <v>1422</v>
       </c>
       <c r="I80" s="9">
-        <v>1422</v>
-      </c>
-      <c r="J80" s="9">
         <v>1451</v>
       </c>
+      <c r="J80" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="K80" s="9" t="s">
         <v>17</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>31</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
         <v>42</v>
       </c>
@@ -3414,8 +3414,8 @@
         <v>45</v>
       </c>
       <c r="D82" s="9"/>
-      <c r="E82" s="9">
-        <v>0</v>
+      <c r="E82" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="F82" s="9" t="s">
         <v>17</v>
@@ -3445,7 +3445,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
         <v>43</v>
       </c>
@@ -3453,8 +3453,8 @@
         <v>45</v>
       </c>
       <c r="D83" s="11"/>
-      <c r="E83" s="11">
-        <v>-70589</v>
+      <c r="E83" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F83" s="11" t="s">
         <v>17</v>
@@ -3484,7 +3484,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
         <v>33</v>
       </c>
@@ -3492,38 +3492,38 @@
         <v>45</v>
       </c>
       <c r="D84" s="9"/>
-      <c r="E84" s="9" t="s">
-        <v>17</v>
+      <c r="E84" s="9">
+        <v>287059</v>
       </c>
       <c r="F84" s="9">
-        <v>287059</v>
-      </c>
-      <c r="G84" s="9">
         <v>0</v>
       </c>
-      <c r="H84" s="9" t="s">
-        <v>17</v>
+      <c r="G84" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H84" s="9">
+        <v>180653</v>
       </c>
       <c r="I84" s="9">
-        <v>180653</v>
+        <v>673247</v>
       </c>
       <c r="J84" s="9">
-        <v>673247</v>
+        <v>279497</v>
       </c>
       <c r="K84" s="9">
-        <v>279497</v>
+        <v>318631</v>
       </c>
       <c r="L84" s="9">
-        <v>318631</v>
+        <v>397942</v>
       </c>
       <c r="M84" s="9">
-        <v>397942</v>
+        <v>540736</v>
       </c>
       <c r="N84" s="9">
-        <v>540736</v>
-      </c>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+        <v>566568</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>34</v>
       </c>
@@ -3531,38 +3531,38 @@
         <v>45</v>
       </c>
       <c r="D85" s="11"/>
-      <c r="E85" s="11" t="s">
-        <v>17</v>
+      <c r="E85" s="11">
+        <v>312503</v>
       </c>
       <c r="F85" s="11">
-        <v>312503</v>
-      </c>
-      <c r="G85" s="11">
         <v>0</v>
       </c>
-      <c r="H85" s="11" t="s">
-        <v>17</v>
+      <c r="G85" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H85" s="11">
+        <v>729638</v>
       </c>
       <c r="I85" s="11">
-        <v>729638</v>
+        <v>1580323</v>
       </c>
       <c r="J85" s="11">
-        <v>1580323</v>
+        <v>1241905</v>
       </c>
       <c r="K85" s="11">
-        <v>1241905</v>
+        <v>1434277</v>
       </c>
       <c r="L85" s="11">
-        <v>1434277</v>
+        <v>1061282</v>
       </c>
       <c r="M85" s="11">
-        <v>1061282</v>
+        <v>1499558</v>
       </c>
       <c r="N85" s="11">
-        <v>1499558</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1419645</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
         <v>35</v>
       </c>
@@ -3585,23 +3585,23 @@
       <c r="I86" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J86" s="9" t="s">
-        <v>17</v>
+      <c r="J86" s="9">
+        <v>282399</v>
       </c>
       <c r="K86" s="9">
-        <v>282399</v>
+        <v>327000</v>
       </c>
       <c r="L86" s="9">
-        <v>327000</v>
+        <v>375093</v>
       </c>
       <c r="M86" s="9">
-        <v>375093</v>
+        <v>243216</v>
       </c>
       <c r="N86" s="9">
-        <v>243216</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+        <v>255634</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>36</v>
       </c>
@@ -3609,24 +3609,24 @@
         <v>45</v>
       </c>
       <c r="D87" s="11"/>
-      <c r="E87" s="11" t="s">
-        <v>17</v>
+      <c r="E87" s="11">
+        <v>135148</v>
       </c>
       <c r="F87" s="11">
-        <v>135148</v>
-      </c>
-      <c r="G87" s="11">
         <v>0</v>
       </c>
-      <c r="H87" s="11" t="s">
-        <v>17</v>
+      <c r="G87" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H87" s="11">
+        <v>324520</v>
       </c>
       <c r="I87" s="11">
-        <v>324520</v>
-      </c>
-      <c r="J87" s="11">
         <v>683762</v>
       </c>
+      <c r="J87" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="K87" s="11" t="s">
         <v>17</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
         <v>37</v>
       </c>
@@ -3648,24 +3648,24 @@
         <v>45</v>
       </c>
       <c r="D88" s="9"/>
-      <c r="E88" s="9" t="s">
-        <v>17</v>
+      <c r="E88" s="9">
+        <v>26846</v>
       </c>
       <c r="F88" s="9">
-        <v>26846</v>
-      </c>
-      <c r="G88" s="9">
         <v>0</v>
       </c>
-      <c r="H88" s="9" t="s">
-        <v>17</v>
+      <c r="G88" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H88" s="9">
+        <v>40108</v>
       </c>
       <c r="I88" s="9">
-        <v>40108</v>
-      </c>
-      <c r="J88" s="9">
         <v>110250</v>
       </c>
+      <c r="J88" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="K88" s="9" t="s">
         <v>17</v>
       </c>
@@ -3679,44 +3679,44 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C89" s="13"/>
       <c r="D89" s="13"/>
       <c r="E89" s="13">
-        <v>451206</v>
+        <v>761556</v>
       </c>
       <c r="F89" s="13">
-        <v>761556</v>
+        <v>-2034</v>
       </c>
       <c r="G89" s="13">
-        <v>-2034</v>
+        <v>0</v>
       </c>
       <c r="H89" s="13">
-        <v>0</v>
+        <v>1276341</v>
       </c>
       <c r="I89" s="13">
-        <v>1276341</v>
+        <v>3049033</v>
       </c>
       <c r="J89" s="13">
-        <v>3049033</v>
+        <v>1803801</v>
       </c>
       <c r="K89" s="13">
-        <v>1803801</v>
+        <v>2079908</v>
       </c>
       <c r="L89" s="13">
-        <v>2079908</v>
+        <v>1834317</v>
       </c>
       <c r="M89" s="13">
-        <v>1834317</v>
+        <v>2283510</v>
       </c>
       <c r="N89" s="13">
-        <v>2283510</v>
-      </c>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2241847</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3731,7 +3731,7 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3746,7 +3746,7 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3761,7 +3761,7 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B93" s="7" t="s">
         <v>46</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3813,7 +3813,7 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="8" t="s">
         <v>40</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
         <v>15</v>
       </c>
@@ -3860,8 +3860,8 @@
         <v>48</v>
       </c>
       <c r="D96" s="11"/>
-      <c r="E96" s="11">
-        <v>6620737</v>
+      <c r="E96" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F96" s="11" t="s">
         <v>17</v>
@@ -3891,7 +3891,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>18</v>
       </c>
@@ -3899,8 +3899,8 @@
         <v>48</v>
       </c>
       <c r="D97" s="9"/>
-      <c r="E97" s="9">
-        <v>147355872</v>
+      <c r="E97" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="F97" s="9" t="s">
         <v>17</v>
@@ -3930,7 +3930,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>19</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>20</v>
       </c>
@@ -3977,8 +3977,8 @@
         <v>48</v>
       </c>
       <c r="D99" s="9"/>
-      <c r="E99" s="9">
-        <v>3936832</v>
+      <c r="E99" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="F99" s="9" t="s">
         <v>17</v>
@@ -4008,7 +4008,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>21</v>
       </c>
@@ -4016,8 +4016,8 @@
         <v>48</v>
       </c>
       <c r="D100" s="11"/>
-      <c r="E100" s="11">
-        <v>9220280</v>
+      <c r="E100" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F100" s="11" t="s">
         <v>17</v>
@@ -4047,7 +4047,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>22</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>23</v>
       </c>
@@ -4094,8 +4094,8 @@
         <v>48</v>
       </c>
       <c r="D102" s="11"/>
-      <c r="E102" s="11">
-        <v>38301358</v>
+      <c r="E102" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F102" s="11" t="s">
         <v>17</v>
@@ -4125,7 +4125,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>24</v>
       </c>
@@ -4133,8 +4133,8 @@
         <v>48</v>
       </c>
       <c r="D103" s="9"/>
-      <c r="E103" s="9">
-        <v>1017439</v>
+      <c r="E103" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="F103" s="9" t="s">
         <v>17</v>
@@ -4164,7 +4164,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
         <v>25</v>
       </c>
@@ -4172,8 +4172,8 @@
         <v>48</v>
       </c>
       <c r="D104" s="11"/>
-      <c r="E104" s="11">
-        <v>122411654</v>
+      <c r="E104" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F104" s="11" t="s">
         <v>17</v>
@@ -4203,7 +4203,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
         <v>26</v>
       </c>
@@ -4211,8 +4211,8 @@
         <v>48</v>
       </c>
       <c r="D105" s="9"/>
-      <c r="E105" s="9">
-        <v>15380978</v>
+      <c r="E105" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="F105" s="9" t="s">
         <v>17</v>
@@ -4242,7 +4242,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="s">
         <v>27</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>28</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
         <v>29</v>
       </c>
@@ -4328,8 +4328,8 @@
         <v>48</v>
       </c>
       <c r="D108" s="11"/>
-      <c r="E108" s="11">
-        <v>83143322</v>
+      <c r="E108" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F108" s="11" t="s">
         <v>17</v>
@@ -4359,7 +4359,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>30</v>
       </c>
@@ -4370,21 +4370,21 @@
       <c r="E109" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F109" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G109" s="9">
+      <c r="F109" s="9">
         <v>156461538</v>
       </c>
-      <c r="H109" s="9" t="s">
-        <v>17</v>
+      <c r="G109" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H109" s="9">
+        <v>474000000</v>
       </c>
       <c r="I109" s="9">
-        <v>474000000</v>
-      </c>
-      <c r="J109" s="9">
         <v>483666667</v>
       </c>
+      <c r="J109" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="K109" s="9" t="s">
         <v>17</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>31</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>42</v>
       </c>
@@ -4476,7 +4476,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>43</v>
       </c>
@@ -4515,7 +4515,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>33</v>
       </c>
@@ -4523,38 +4523,38 @@
         <v>48</v>
       </c>
       <c r="D113" s="9"/>
-      <c r="E113" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F113" s="9">
+      <c r="E113" s="9">
         <v>19399811</v>
       </c>
+      <c r="F113" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="G113" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H113" s="9" t="s">
-        <v>17</v>
+      <c r="H113" s="9">
+        <v>8426373</v>
       </c>
       <c r="I113" s="9">
-        <v>8426373</v>
+        <v>13831190</v>
       </c>
       <c r="J113" s="9">
-        <v>13831190</v>
+        <v>13953919</v>
       </c>
       <c r="K113" s="9">
-        <v>13953919</v>
+        <v>14201141</v>
       </c>
       <c r="L113" s="9">
-        <v>14201141</v>
+        <v>18285255</v>
       </c>
       <c r="M113" s="9">
-        <v>18285255</v>
+        <v>26318310</v>
       </c>
       <c r="N113" s="9">
-        <v>26318310</v>
-      </c>
-    </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+        <v>29792712</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
         <v>34</v>
       </c>
@@ -4562,38 +4562,38 @@
         <v>48</v>
       </c>
       <c r="D114" s="11"/>
-      <c r="E114" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F114" s="11">
+      <c r="E114" s="11">
         <v>45801407</v>
       </c>
+      <c r="F114" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G114" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H114" s="11" t="s">
-        <v>17</v>
+      <c r="H114" s="11">
+        <v>1045326648</v>
       </c>
       <c r="I114" s="11">
-        <v>1045326648</v>
+        <v>72819233</v>
       </c>
       <c r="J114" s="11">
-        <v>72819233</v>
+        <v>166698658</v>
       </c>
       <c r="K114" s="11">
-        <v>166698658</v>
+        <v>202982876</v>
       </c>
       <c r="L114" s="11">
-        <v>202982876</v>
+        <v>154525626</v>
       </c>
       <c r="M114" s="11">
-        <v>154525626</v>
+        <v>168376151</v>
       </c>
       <c r="N114" s="11">
-        <v>168376151</v>
-      </c>
-    </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+        <v>192624830</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>35</v>
       </c>
@@ -4616,23 +4616,23 @@
       <c r="I115" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J115" s="9" t="s">
-        <v>17</v>
+      <c r="J115" s="9">
+        <v>415292647</v>
       </c>
       <c r="K115" s="9">
-        <v>415292647</v>
+        <v>335728953</v>
       </c>
       <c r="L115" s="9">
-        <v>335728953</v>
+        <v>369549754</v>
       </c>
       <c r="M115" s="9">
-        <v>369549754</v>
+        <v>346461538</v>
       </c>
       <c r="N115" s="9">
-        <v>346461538</v>
-      </c>
-    </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+        <v>335038008</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>36</v>
       </c>
@@ -4640,24 +4640,24 @@
         <v>48</v>
       </c>
       <c r="D116" s="11"/>
-      <c r="E116" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F116" s="11">
+      <c r="E116" s="11">
         <v>205704718</v>
       </c>
+      <c r="F116" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G116" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H116" s="11" t="s">
-        <v>17</v>
+      <c r="H116" s="11">
+        <v>642613861</v>
       </c>
       <c r="I116" s="11">
-        <v>642613861</v>
-      </c>
-      <c r="J116" s="11">
         <v>401268779</v>
       </c>
+      <c r="J116" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="K116" s="11" t="s">
         <v>17</v>
       </c>
@@ -4671,7 +4671,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>37</v>
       </c>
@@ -4679,24 +4679,24 @@
         <v>48</v>
       </c>
       <c r="D117" s="9"/>
-      <c r="E117" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F117" s="9">
+      <c r="E117" s="9">
         <v>92254296</v>
       </c>
+      <c r="F117" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="G117" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H117" s="9" t="s">
-        <v>17</v>
+      <c r="H117" s="9">
+        <v>358107143</v>
       </c>
       <c r="I117" s="9">
-        <v>358107143</v>
-      </c>
-      <c r="J117" s="9">
         <v>167298938</v>
       </c>
+      <c r="J117" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="K117" s="9" t="s">
         <v>17</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -4725,7 +4725,7 @@
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -4740,7 +4740,7 @@
       <c r="M119" s="1"/>
       <c r="N119" s="1"/>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -4755,7 +4755,7 @@
       <c r="M120" s="1"/>
       <c r="N120" s="1"/>
     </row>
-    <row r="121" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B121" s="7" t="s">
         <v>51</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -4807,7 +4807,7 @@
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
         <v>40</v>
       </c>
@@ -4818,8 +4818,8 @@
       <c r="E123" s="9">
         <v>0</v>
       </c>
-      <c r="F123" s="9">
-        <v>0</v>
+      <c r="F123" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="G123" s="9" t="s">
         <v>17</v>
@@ -4846,7 +4846,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
         <v>15</v>
       </c>
@@ -4854,8 +4854,8 @@
         <v>45</v>
       </c>
       <c r="D124" s="11"/>
-      <c r="E124" s="11">
-        <v>-15533</v>
+      <c r="E124" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F124" s="11" t="s">
         <v>17</v>
@@ -4885,7 +4885,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
         <v>18</v>
       </c>
@@ -4893,8 +4893,8 @@
         <v>45</v>
       </c>
       <c r="D125" s="9"/>
-      <c r="E125" s="9">
-        <v>-44182</v>
+      <c r="E125" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="F125" s="9" t="s">
         <v>17</v>
@@ -4924,7 +4924,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
         <v>20</v>
       </c>
@@ -4932,8 +4932,8 @@
         <v>45</v>
       </c>
       <c r="D126" s="11"/>
-      <c r="E126" s="11">
-        <v>-8279</v>
+      <c r="E126" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F126" s="11" t="s">
         <v>17</v>
@@ -4963,7 +4963,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>21</v>
       </c>
@@ -4971,8 +4971,8 @@
         <v>45</v>
       </c>
       <c r="D127" s="9"/>
-      <c r="E127" s="9">
-        <v>-6761</v>
+      <c r="E127" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="F127" s="9" t="s">
         <v>17</v>
@@ -5002,7 +5002,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>23</v>
       </c>
@@ -5010,8 +5010,8 @@
         <v>45</v>
       </c>
       <c r="D128" s="11"/>
-      <c r="E128" s="11">
-        <v>-117254</v>
+      <c r="E128" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F128" s="11" t="s">
         <v>17</v>
@@ -5041,7 +5041,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
         <v>24</v>
       </c>
@@ -5049,8 +5049,8 @@
         <v>45</v>
       </c>
       <c r="D129" s="9"/>
-      <c r="E129" s="9">
-        <v>-7385</v>
+      <c r="E129" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="F129" s="9" t="s">
         <v>17</v>
@@ -5080,7 +5080,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>25</v>
       </c>
@@ -5088,8 +5088,8 @@
         <v>45</v>
       </c>
       <c r="D130" s="11"/>
-      <c r="E130" s="11">
-        <v>-36545</v>
+      <c r="E130" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F130" s="11" t="s">
         <v>17</v>
@@ -5119,7 +5119,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
         <v>26</v>
       </c>
@@ -5127,8 +5127,8 @@
         <v>45</v>
       </c>
       <c r="D131" s="9"/>
-      <c r="E131" s="9">
-        <v>-11717</v>
+      <c r="E131" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="F131" s="9" t="s">
         <v>17</v>
@@ -5158,7 +5158,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="10" t="s">
         <v>27</v>
       </c>
@@ -5166,8 +5166,8 @@
         <v>45</v>
       </c>
       <c r="D132" s="11"/>
-      <c r="E132" s="11">
-        <v>0</v>
+      <c r="E132" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F132" s="11" t="s">
         <v>17</v>
@@ -5197,7 +5197,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>28</v>
       </c>
@@ -5208,14 +5208,14 @@
       <c r="E133" s="9">
         <v>0</v>
       </c>
-      <c r="F133" s="9">
+      <c r="F133" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G133" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H133" s="9">
         <v>0</v>
-      </c>
-      <c r="G133" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H133" s="9" t="s">
-        <v>17</v>
       </c>
       <c r="I133" s="9">
         <v>0</v>
@@ -5236,7 +5236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>29</v>
       </c>
@@ -5244,8 +5244,8 @@
         <v>45</v>
       </c>
       <c r="D134" s="11"/>
-      <c r="E134" s="11">
-        <v>-17346</v>
+      <c r="E134" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F134" s="11" t="s">
         <v>17</v>
@@ -5275,7 +5275,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>30</v>
       </c>
@@ -5284,23 +5284,23 @@
       </c>
       <c r="D135" s="9"/>
       <c r="E135" s="9">
-        <v>-1003</v>
-      </c>
-      <c r="F135" s="9">
         <v>0</v>
       </c>
+      <c r="F135" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="G135" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H135" s="9" t="s">
-        <v>17</v>
+      <c r="H135" s="9">
+        <v>-685</v>
       </c>
       <c r="I135" s="9">
-        <v>-685</v>
-      </c>
-      <c r="J135" s="9">
         <v>-725</v>
       </c>
+      <c r="J135" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="K135" s="9" t="s">
         <v>17</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>31</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>42</v>
       </c>
@@ -5361,8 +5361,8 @@
         <v>45</v>
       </c>
       <c r="D137" s="9"/>
-      <c r="E137" s="9">
-        <v>0</v>
+      <c r="E137" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="F137" s="9" t="s">
         <v>17</v>
@@ -5392,7 +5392,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>43</v>
       </c>
@@ -5400,8 +5400,8 @@
         <v>45</v>
       </c>
       <c r="D138" s="11"/>
-      <c r="E138" s="11">
-        <v>0</v>
+      <c r="E138" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F138" s="11" t="s">
         <v>17</v>
@@ -5431,7 +5431,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
         <v>33</v>
       </c>
@@ -5439,38 +5439,38 @@
         <v>45</v>
       </c>
       <c r="D139" s="9"/>
-      <c r="E139" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F139" s="9">
+      <c r="E139" s="9">
         <v>-142956</v>
       </c>
+      <c r="F139" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="G139" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H139" s="9" t="s">
-        <v>17</v>
+      <c r="H139" s="9">
+        <v>-123259</v>
       </c>
       <c r="I139" s="9">
-        <v>-123259</v>
+        <v>-394669</v>
       </c>
       <c r="J139" s="9">
-        <v>-394669</v>
+        <v>-131476</v>
       </c>
       <c r="K139" s="9">
-        <v>-131476</v>
+        <v>-197375</v>
       </c>
       <c r="L139" s="9">
-        <v>-197375</v>
+        <v>-234488</v>
       </c>
       <c r="M139" s="9">
-        <v>-234488</v>
+        <v>-273761</v>
       </c>
       <c r="N139" s="9">
-        <v>-273761</v>
-      </c>
-    </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-268795</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="10" t="s">
         <v>34</v>
       </c>
@@ -5478,38 +5478,38 @@
         <v>45</v>
       </c>
       <c r="D140" s="11"/>
-      <c r="E140" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F140" s="11">
+      <c r="E140" s="11">
         <v>-119342</v>
       </c>
+      <c r="F140" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G140" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H140" s="11" t="s">
-        <v>17</v>
+      <c r="H140" s="11">
+        <v>-456407</v>
       </c>
       <c r="I140" s="11">
-        <v>-456407</v>
+        <v>-796787</v>
       </c>
       <c r="J140" s="11">
-        <v>-796787</v>
+        <v>-262390</v>
       </c>
       <c r="K140" s="11">
-        <v>-262390</v>
+        <v>-338707</v>
       </c>
       <c r="L140" s="11">
-        <v>-338707</v>
+        <v>-311515</v>
       </c>
       <c r="M140" s="11">
-        <v>-311515</v>
+        <v>-424530</v>
       </c>
       <c r="N140" s="11">
-        <v>-424530</v>
-      </c>
-    </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-390370</v>
+      </c>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
         <v>35</v>
       </c>
@@ -5532,23 +5532,23 @@
       <c r="I141" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J141" s="9" t="s">
-        <v>17</v>
+      <c r="J141" s="9">
+        <v>-173834</v>
       </c>
       <c r="K141" s="9">
-        <v>-173834</v>
+        <v>-225217</v>
       </c>
       <c r="L141" s="9">
-        <v>-225217</v>
+        <v>-252200</v>
       </c>
       <c r="M141" s="9">
-        <v>-252200</v>
+        <v>-155023</v>
       </c>
       <c r="N141" s="9">
-        <v>-155023</v>
-      </c>
-    </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-181199</v>
+      </c>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="10" t="s">
         <v>36</v>
       </c>
@@ -5556,24 +5556,24 @@
         <v>45</v>
       </c>
       <c r="D142" s="11"/>
-      <c r="E142" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F142" s="11">
+      <c r="E142" s="11">
         <v>-53223</v>
       </c>
+      <c r="F142" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G142" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H142" s="11" t="s">
-        <v>17</v>
+      <c r="H142" s="11">
+        <v>-220440</v>
       </c>
       <c r="I142" s="11">
-        <v>-220440</v>
-      </c>
-      <c r="J142" s="11">
         <v>-426402</v>
       </c>
+      <c r="J142" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="K142" s="11" t="s">
         <v>17</v>
       </c>
@@ -5587,7 +5587,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="8" t="s">
         <v>37</v>
       </c>
@@ -5595,24 +5595,24 @@
         <v>45</v>
       </c>
       <c r="D143" s="9"/>
-      <c r="E143" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F143" s="9">
+      <c r="E143" s="9">
         <v>-23742</v>
       </c>
+      <c r="F143" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="G143" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H143" s="9" t="s">
-        <v>17</v>
+      <c r="H143" s="9">
+        <v>-37327</v>
       </c>
       <c r="I143" s="9">
-        <v>-37327</v>
-      </c>
-      <c r="J143" s="9">
         <v>-106363</v>
       </c>
+      <c r="J143" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="K143" s="9" t="s">
         <v>17</v>
       </c>
@@ -5626,44 +5626,44 @@
         <v>17</v>
       </c>
     </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C144" s="13"/>
       <c r="D144" s="13"/>
       <c r="E144" s="13">
-        <v>-266005</v>
+        <v>-339263</v>
       </c>
       <c r="F144" s="13">
-        <v>-339263</v>
+        <v>0</v>
       </c>
       <c r="G144" s="13">
         <v>0</v>
       </c>
       <c r="H144" s="13">
-        <v>0</v>
+        <v>-838118</v>
       </c>
       <c r="I144" s="13">
-        <v>-838118</v>
+        <v>-1724946</v>
       </c>
       <c r="J144" s="13">
-        <v>-1724946</v>
+        <v>-567700</v>
       </c>
       <c r="K144" s="13">
-        <v>-567700</v>
+        <v>-761299</v>
       </c>
       <c r="L144" s="13">
-        <v>-761299</v>
+        <v>-798203</v>
       </c>
       <c r="M144" s="13">
-        <v>-798203</v>
+        <v>-853314</v>
       </c>
       <c r="N144" s="13">
-        <v>-853314</v>
-      </c>
-    </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-840364</v>
+      </c>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -5678,7 +5678,7 @@
       <c r="M145" s="1"/>
       <c r="N145" s="1"/>
     </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -5693,7 +5693,7 @@
       <c r="M146" s="1"/>
       <c r="N146" s="1"/>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -5708,7 +5708,7 @@
       <c r="M147" s="1"/>
       <c r="N147" s="1"/>
     </row>
-    <row r="148" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B148" s="7" t="s">
         <v>52</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -5760,7 +5760,7 @@
       <c r="M149" s="1"/>
       <c r="N149" s="1"/>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="8" t="s">
         <v>40</v>
       </c>
@@ -5769,11 +5769,11 @@
       </c>
       <c r="D150" s="9"/>
       <c r="E150" s="9">
-        <v>-7</v>
-      </c>
-      <c r="F150" s="9">
         <v>0</v>
       </c>
+      <c r="F150" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="G150" s="9" t="s">
         <v>17</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="10" t="s">
         <v>15</v>
       </c>
@@ -5807,8 +5807,8 @@
         <v>45</v>
       </c>
       <c r="D151" s="11"/>
-      <c r="E151" s="11">
-        <v>27952</v>
+      <c r="E151" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F151" s="11" t="s">
         <v>17</v>
@@ -5838,7 +5838,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="8" t="s">
         <v>18</v>
       </c>
@@ -5846,8 +5846,8 @@
         <v>45</v>
       </c>
       <c r="D152" s="9"/>
-      <c r="E152" s="9">
-        <v>80039</v>
+      <c r="E152" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="F152" s="9" t="s">
         <v>17</v>
@@ -5877,7 +5877,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B153" s="10" t="s">
         <v>20</v>
       </c>
@@ -5885,8 +5885,8 @@
         <v>45</v>
       </c>
       <c r="D153" s="11"/>
-      <c r="E153" s="11">
-        <v>-177</v>
+      <c r="E153" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F153" s="11" t="s">
         <v>17</v>
@@ -5916,7 +5916,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="8" t="s">
         <v>21</v>
       </c>
@@ -5924,8 +5924,8 @@
         <v>45</v>
       </c>
       <c r="D154" s="9"/>
-      <c r="E154" s="9">
-        <v>-1487</v>
+      <c r="E154" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="F154" s="9" t="s">
         <v>17</v>
@@ -5955,7 +5955,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B155" s="10" t="s">
         <v>23</v>
       </c>
@@ -5963,8 +5963,8 @@
         <v>45</v>
       </c>
       <c r="D155" s="11"/>
-      <c r="E155" s="11">
-        <v>97157</v>
+      <c r="E155" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F155" s="11" t="s">
         <v>17</v>
@@ -5994,7 +5994,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="8" t="s">
         <v>24</v>
       </c>
@@ -6002,8 +6002,8 @@
         <v>45</v>
       </c>
       <c r="D156" s="9"/>
-      <c r="E156" s="9">
-        <v>-34</v>
+      <c r="E156" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="F156" s="9" t="s">
         <v>17</v>
@@ -6033,7 +6033,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="10" t="s">
         <v>25</v>
       </c>
@@ -6041,8 +6041,8 @@
         <v>45</v>
       </c>
       <c r="D157" s="11"/>
-      <c r="E157" s="11">
-        <v>28578</v>
+      <c r="E157" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F157" s="11" t="s">
         <v>17</v>
@@ -6072,7 +6072,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="8" t="s">
         <v>26</v>
       </c>
@@ -6080,8 +6080,8 @@
         <v>45</v>
       </c>
       <c r="D158" s="9"/>
-      <c r="E158" s="9">
-        <v>16584</v>
+      <c r="E158" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="F158" s="9" t="s">
         <v>17</v>
@@ -6111,7 +6111,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B159" s="10" t="s">
         <v>27</v>
       </c>
@@ -6119,8 +6119,8 @@
         <v>45</v>
       </c>
       <c r="D159" s="11"/>
-      <c r="E159" s="11">
-        <v>0</v>
+      <c r="E159" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F159" s="11" t="s">
         <v>17</v>
@@ -6150,7 +6150,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B160" s="8" t="s">
         <v>28</v>
       </c>
@@ -6161,14 +6161,14 @@
       <c r="E160" s="9">
         <v>0</v>
       </c>
-      <c r="F160" s="9">
+      <c r="F160" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G160" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H160" s="9">
         <v>0</v>
-      </c>
-      <c r="G160" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H160" s="9" t="s">
-        <v>17</v>
       </c>
       <c r="I160" s="9">
         <v>0</v>
@@ -6189,7 +6189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B161" s="10" t="s">
         <v>29</v>
       </c>
@@ -6197,8 +6197,8 @@
         <v>45</v>
       </c>
       <c r="D161" s="11"/>
-      <c r="E161" s="11">
-        <v>8179</v>
+      <c r="E161" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F161" s="11" t="s">
         <v>17</v>
@@ -6228,7 +6228,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B162" s="8" t="s">
         <v>30</v>
       </c>
@@ -6237,23 +6237,23 @@
       </c>
       <c r="D162" s="9"/>
       <c r="E162" s="9">
-        <v>-994</v>
-      </c>
-      <c r="F162" s="9">
         <v>0</v>
       </c>
+      <c r="F162" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="G162" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H162" s="9" t="s">
-        <v>17</v>
+      <c r="H162" s="9">
+        <v>737</v>
       </c>
       <c r="I162" s="9">
-        <v>737</v>
-      </c>
-      <c r="J162" s="9">
         <v>726</v>
       </c>
+      <c r="J162" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="K162" s="9" t="s">
         <v>17</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B163" s="10" t="s">
         <v>31</v>
       </c>
@@ -6306,7 +6306,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B164" s="8" t="s">
         <v>42</v>
       </c>
@@ -6314,8 +6314,8 @@
         <v>45</v>
       </c>
       <c r="D164" s="9"/>
-      <c r="E164" s="9">
-        <v>0</v>
+      <c r="E164" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="F164" s="9" t="s">
         <v>17</v>
@@ -6345,7 +6345,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B165" s="10" t="s">
         <v>43</v>
       </c>
@@ -6353,8 +6353,8 @@
         <v>45</v>
       </c>
       <c r="D165" s="11"/>
-      <c r="E165" s="11">
-        <v>-70589</v>
+      <c r="E165" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F165" s="11" t="s">
         <v>17</v>
@@ -6384,7 +6384,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B166" s="8" t="s">
         <v>33</v>
       </c>
@@ -6392,38 +6392,38 @@
         <v>45</v>
       </c>
       <c r="D166" s="9"/>
-      <c r="E166" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F166" s="9">
+      <c r="E166" s="9">
         <v>144103</v>
       </c>
+      <c r="F166" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="G166" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H166" s="9" t="s">
-        <v>17</v>
+      <c r="H166" s="9">
+        <v>57394</v>
       </c>
       <c r="I166" s="9">
-        <v>57394</v>
+        <v>278578</v>
       </c>
       <c r="J166" s="9">
-        <v>278578</v>
+        <v>148021</v>
       </c>
       <c r="K166" s="9">
-        <v>148021</v>
+        <v>121256</v>
       </c>
       <c r="L166" s="9">
-        <v>121256</v>
+        <v>163454</v>
       </c>
       <c r="M166" s="9">
-        <v>163454</v>
+        <v>266975</v>
       </c>
       <c r="N166" s="9">
-        <v>266975</v>
-      </c>
-    </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
+        <v>297773</v>
+      </c>
+    </row>
+    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B167" s="10" t="s">
         <v>34</v>
       </c>
@@ -6431,38 +6431,38 @@
         <v>45</v>
       </c>
       <c r="D167" s="11"/>
-      <c r="E167" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F167" s="11">
+      <c r="E167" s="11">
         <v>193161</v>
       </c>
+      <c r="F167" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G167" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H167" s="11" t="s">
-        <v>17</v>
+      <c r="H167" s="11">
+        <v>273231</v>
       </c>
       <c r="I167" s="11">
-        <v>273231</v>
+        <v>783536</v>
       </c>
       <c r="J167" s="11">
-        <v>783536</v>
+        <v>979515</v>
       </c>
       <c r="K167" s="11">
-        <v>979515</v>
+        <v>1095570</v>
       </c>
       <c r="L167" s="11">
-        <v>1095570</v>
+        <v>749767</v>
       </c>
       <c r="M167" s="11">
-        <v>749767</v>
+        <v>1075028</v>
       </c>
       <c r="N167" s="11">
-        <v>1075028</v>
-      </c>
-    </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1029275</v>
+      </c>
+    </row>
+    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B168" s="8" t="s">
         <v>35</v>
       </c>
@@ -6485,23 +6485,23 @@
       <c r="I168" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J168" s="9" t="s">
-        <v>17</v>
+      <c r="J168" s="9">
+        <v>108565</v>
       </c>
       <c r="K168" s="9">
-        <v>108565</v>
+        <v>101783</v>
       </c>
       <c r="L168" s="9">
-        <v>101783</v>
+        <v>122893</v>
       </c>
       <c r="M168" s="9">
-        <v>122893</v>
+        <v>88193</v>
       </c>
       <c r="N168" s="9">
-        <v>88193</v>
-      </c>
-    </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
+        <v>74435</v>
+      </c>
+    </row>
+    <row r="169" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B169" s="10" t="s">
         <v>36</v>
       </c>
@@ -6509,24 +6509,24 @@
         <v>45</v>
       </c>
       <c r="D169" s="11"/>
-      <c r="E169" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F169" s="11">
+      <c r="E169" s="11">
         <v>81925</v>
       </c>
+      <c r="F169" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="G169" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H169" s="11" t="s">
-        <v>17</v>
+      <c r="H169" s="11">
+        <v>104080</v>
       </c>
       <c r="I169" s="11">
-        <v>104080</v>
-      </c>
-      <c r="J169" s="11">
         <v>257360</v>
       </c>
+      <c r="J169" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="K169" s="11" t="s">
         <v>17</v>
       </c>
@@ -6540,7 +6540,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B170" s="8" t="s">
         <v>37</v>
       </c>
@@ -6548,24 +6548,24 @@
         <v>45</v>
       </c>
       <c r="D170" s="9"/>
-      <c r="E170" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F170" s="9">
+      <c r="E170" s="9">
         <v>3104</v>
       </c>
+      <c r="F170" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="G170" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H170" s="9" t="s">
-        <v>17</v>
+      <c r="H170" s="9">
+        <v>2781</v>
       </c>
       <c r="I170" s="9">
-        <v>2781</v>
-      </c>
-      <c r="J170" s="9">
         <v>3887</v>
       </c>
+      <c r="J170" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="K170" s="9" t="s">
         <v>17</v>
       </c>
@@ -6579,41 +6579,41 @@
         <v>17</v>
       </c>
     </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B171" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C171" s="13"/>
       <c r="D171" s="13"/>
       <c r="E171" s="13">
-        <v>185201</v>
+        <v>422293</v>
       </c>
       <c r="F171" s="13">
-        <v>422293</v>
+        <v>0</v>
       </c>
       <c r="G171" s="13">
         <v>0</v>
       </c>
       <c r="H171" s="13">
-        <v>0</v>
+        <v>438223</v>
       </c>
       <c r="I171" s="13">
-        <v>438223</v>
+        <v>1324087</v>
       </c>
       <c r="J171" s="13">
-        <v>1324087</v>
+        <v>1236101</v>
       </c>
       <c r="K171" s="13">
-        <v>1236101</v>
+        <v>1318609</v>
       </c>
       <c r="L171" s="13">
-        <v>1318609</v>
+        <v>1036114</v>
       </c>
       <c r="M171" s="13">
-        <v>1036114</v>
+        <v>1430196</v>
       </c>
       <c r="N171" s="13">
-        <v>1430196</v>
+        <v>1401483</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/methanol/shekolor/product/quarterly.xlsx
+++ b/database/industries/methanol/shekolor/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\shekolor\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAHID\Desktop\Trade\database\industries\methanol\shekolor\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A68E3B-42C3-42D9-88E4-D91396B0DB88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD77681-0AAC-4B8E-AFA6-A51A4BC30B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
